--- a/ipta_sim/original/ng wn.xlsx
+++ b/ipta_sim/original/ng wn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgrun\Documents\Promotion\Projects\03_pulsar-distance\ipta_sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgrun\Documents\Promotion\Projects\03_pulsar-distance\ipta_sim\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C573E51-476F-4B72-AACF-78B9404456C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE5B3D-3113-4CD0-A5CD-401FD99C3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F14049BC-190A-4A9C-ABEA-7D9419E15B4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F14049BC-190A-4A9C-ABEA-7D9419E15B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>J0437-4715</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>J2322+2057</t>
+  </si>
+  <si>
+    <t>J0340+4130</t>
   </si>
 </sst>
 </file>
@@ -616,2771 +619,2804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3984821-4696-4266-95A9-378188F6B640}">
-  <dimension ref="A1:C453"/>
+  <dimension ref="A5:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C451" sqref="C451"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5.3652800000000003</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(A2:A3)</f>
-        <v>3.3793500000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1.3934200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.3645000000000004E-4</v>
-      </c>
-      <c r="C4">
-        <f>AVERAGE(A4:A5)</f>
-        <v>1.913395E-3</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.09034E-3</v>
+      <c r="A5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="A6">
+        <v>1.0204200000000001</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(A6:A7)</f>
+        <v>1.02108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.09551</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(A7:A8)</f>
-        <v>1.077475</v>
+        <v>1.0217400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.0594399999999999</v>
+        <v>0.71070299999999997</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(A8:A9)</f>
+        <v>0.87512649999999992</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C8:C9" si="0">AVERAGE(A9:A10)</f>
-        <v>0.96545500000000006</v>
+        <v>1.03955</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.89951</v>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
+      <c r="A11">
+        <v>5.3652800000000003</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(A11:A12)</f>
+        <v>3.3793500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.0168200000000001</v>
-      </c>
-      <c r="C12">
-        <f>AVERAGE(A12:A13)</f>
-        <v>0.92592399999999997</v>
+        <v>1.3934200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.83502799999999999</v>
+        <v>7.3645000000000004E-4</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(A13:A14)</f>
+        <v>1.913395E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.10592699999999999</v>
-      </c>
-      <c r="C14">
-        <f>AVERAGE(A14:A15)</f>
-        <v>0.92486850000000009</v>
+        <v>3.09034E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1.7438100000000001</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
+      <c r="A16">
+        <v>1.09551</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(A16:A17)</f>
+        <v>1.077475</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.98961100000000002</v>
-      </c>
-      <c r="C17">
-        <f>AVERAGE(A17:A18)</f>
-        <v>0.97271949999999996</v>
+        <v>1.0594399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.95582800000000001</v>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="0">AVERAGE(A18:A19)</f>
+        <v>0.96545500000000006</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.74690900000000005</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19" si="1">AVERAGE(A19:A20)</f>
-        <v>1.5063845</v>
+        <v>1.89951</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2.26586</v>
+      <c r="A20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
+      <c r="A21">
+        <v>1.0168200000000001</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(A21:A22)</f>
+        <v>0.92592399999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1.0341100000000001</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22" si="2">AVERAGE(A22:A23)</f>
-        <v>1.0270550000000001</v>
+        <v>0.83502799999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1.02</v>
+        <v>0.10592699999999999</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(A23:A24)</f>
+        <v>0.92486850000000009</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4.9832799999999997E-2</v>
-      </c>
-      <c r="C24">
-        <f>AVERAGE(A24:A25)</f>
-        <v>0.65462639999999994</v>
+        <v>1.7438100000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1.25942</v>
+      <c r="A25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
+      <c r="A26">
+        <v>0.98961100000000002</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(A26:A27)</f>
+        <v>0.97271949999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.94581400000000004</v>
-      </c>
-      <c r="C27">
-        <f>AVERAGE(A27:A30)</f>
-        <v>1.0551884999999999</v>
+        <v>0.95582800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1.0315300000000001</v>
+        <v>0.74690900000000005</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="1">AVERAGE(A28:A29)</f>
+        <v>1.5063845</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1.1392800000000001</v>
+        <v>2.26586</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1.1041300000000001</v>
+      <c r="A30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1.0015100000000001E-2</v>
+        <v>1.0341100000000001</v>
       </c>
       <c r="C31">
-        <f>AVERAGE(A31:A34)</f>
-        <v>8.7437299999999996E-2</v>
+        <f t="shared" ref="C31" si="2">AVERAGE(A31:A32)</f>
+        <v>1.0270550000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.110079</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1.37281E-2</v>
+        <v>4.9832799999999997E-2</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(A33:A34)</f>
+        <v>0.65462639999999994</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.21592700000000001</v>
+        <v>1.25942</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.96920700000000004</v>
+        <v>0.94581400000000004</v>
       </c>
       <c r="C36">
-        <f>AVERAGE(A36:A37)</f>
-        <v>0.96989250000000005</v>
+        <f>AVERAGE(A36:A39)</f>
+        <v>1.0551884999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.97057800000000005</v>
+        <v>1.0315300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4.8746900000000001E-3</v>
-      </c>
-      <c r="C38">
-        <f>AVERAGE(A38:A39)</f>
-        <v>0.106125345</v>
+        <v>1.1392800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.207376</v>
+        <v>1.1041300000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
+      <c r="A40">
+        <v>1.0015100000000001E-2</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE(A40:A43)</f>
+        <v>8.7437299999999996E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1.04145</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41" si="3">AVERAGE(A41:A42)</f>
-        <v>1.0243150000000001</v>
+        <v>0.110079</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1.00718</v>
+        <v>1.37281E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2.18753E-2</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43" si="4">AVERAGE(A43:A44)</f>
-        <v>2.03828E-2</v>
+        <v>0.21592700000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1.8890299999999999E-2</v>
+      <c r="A44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>8</v>
+      <c r="A45">
+        <v>0.96920700000000004</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(A45:A46)</f>
+        <v>0.96989250000000005</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1.04606</v>
-      </c>
-      <c r="C46">
-        <f>AVERAGE(A46:A47)</f>
-        <v>1.0141580000000001</v>
+        <v>0.97057800000000005</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.98225600000000002</v>
+        <v>4.8746900000000001E-3</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE(A47:A48)</f>
+        <v>0.106125345</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3.49482E-3</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48" si="5">AVERAGE(A48:A49)</f>
-        <v>4.9414809999999997E-2</v>
+        <v>0.207376</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>9.5334799999999997E-2</v>
+      <c r="A49" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>9</v>
+      <c r="A50">
+        <v>1.04145</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="3">AVERAGE(A50:A51)</f>
+        <v>1.0243150000000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1.0718700000000001</v>
-      </c>
-      <c r="C51">
-        <f>AVERAGE(A51:A52)</f>
-        <v>1.0215885</v>
+        <v>1.00718</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.97130700000000003</v>
+        <v>2.18753E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52" si="4">AVERAGE(A52:A53)</f>
+        <v>2.03828E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.101803</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53" si="6">AVERAGE(A53:A54)</f>
-        <v>5.3852115000000006E-2</v>
+        <v>1.8890299999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>5.9012300000000004E-3</v>
+      <c r="A54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>10</v>
+      <c r="A55">
+        <v>1.04606</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE(A55:A56)</f>
+        <v>1.0141580000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>11</v>
+      <c r="A56">
+        <v>0.98225600000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1.0245299999999999</v>
+        <v>3.49482E-3</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57" si="7">AVERAGE(A57:A58)</f>
-        <v>1.018885</v>
+        <f t="shared" ref="C57" si="5">AVERAGE(A57:A58)</f>
+        <v>4.9414809999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1.0132399999999999</v>
+        <v>9.5334799999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1.3957799999999999E-2</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ref="C59" si="8">AVERAGE(A59:A60)</f>
-        <v>4.0224899999999994E-2</v>
+      <c r="A59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6.6491999999999996E-2</v>
+        <v>1.0718700000000001</v>
+      </c>
+      <c r="C60">
+        <f>AVERAGE(A60:A61)</f>
+        <v>1.0215885</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>12</v>
+      <c r="A61">
+        <v>0.97130700000000003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>13</v>
+      <c r="A62">
+        <v>0.101803</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62" si="6">AVERAGE(A62:A63)</f>
+        <v>5.3852115000000006E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>14</v>
+      <c r="A63">
+        <v>5.9012300000000004E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>0.99707199999999996</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64" si="9">AVERAGE(A64:A65)</f>
-        <v>1.005026</v>
+      <c r="A64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1.01298</v>
+      <c r="A65" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.15949099999999999</v>
+        <v>1.0245299999999999</v>
       </c>
       <c r="C66">
-        <f>AVERAGE(A66:A67)</f>
-        <v>0.37153199999999997</v>
+        <f t="shared" ref="C66" si="7">AVERAGE(A66:A67)</f>
+        <v>1.018885</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.58357300000000001</v>
+        <v>1.0132399999999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>15</v>
+      <c r="A68">
+        <v>1.3957799999999999E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68" si="8">AVERAGE(A68:A69)</f>
+        <v>4.0224899999999994E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1.0237700000000001</v>
-      </c>
-      <c r="C69">
-        <f>AVERAGE(A69:A72)</f>
-        <v>1.0299375</v>
+        <v>6.6491999999999996E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1.0082599999999999</v>
+      <c r="A70" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1.0359799999999999</v>
+      <c r="A71" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1.0517399999999999</v>
+      <c r="A72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4.0055200000000003E-3</v>
+        <v>0.99707199999999996</v>
       </c>
       <c r="C73">
-        <f>AVERAGE(A73:A76)</f>
-        <v>0.31079477999999999</v>
+        <f t="shared" ref="C73" si="9">AVERAGE(A73:A74)</f>
+        <v>1.005026</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>3.2908600000000003E-2</v>
+        <v>1.01298</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.92832599999999998</v>
+        <v>0.15949099999999999</v>
+      </c>
+      <c r="C75">
+        <f>AVERAGE(A75:A76)</f>
+        <v>0.37153199999999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.27793899999999999</v>
+        <v>0.58357300000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.90889799999999998</v>
+        <v>1.0237700000000001</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78" si="10">AVERAGE(A78:A79)</f>
-        <v>0.82775050000000006</v>
+        <f>AVERAGE(A78:A81)</f>
+        <v>1.0299375</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.74660300000000002</v>
+        <v>1.0082599999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1.72631</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ref="C80" si="11">AVERAGE(A80:A81)</f>
-        <v>4.0506000000000002</v>
+        <v>1.0359799999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6.3748899999999997</v>
+        <v>1.0517399999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>17</v>
+      <c r="A82">
+        <v>4.0055200000000003E-3</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(A82:A85)</f>
+        <v>0.31079477999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>18</v>
+      <c r="A83">
+        <v>3.2908600000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1.27013</v>
-      </c>
-      <c r="C84">
-        <f>AVERAGE(A84:A86)</f>
-        <v>1.17239</v>
+        <v>0.92832599999999998</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1.0842700000000001</v>
+        <v>0.27793899999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1.1627700000000001</v>
+      <c r="A86" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1.77772</v>
+        <v>0.90889799999999998</v>
       </c>
       <c r="C87">
-        <f>AVERAGE(A87:A89)</f>
-        <v>0.6306463699999999</v>
+        <f t="shared" ref="C87" si="10">AVERAGE(A87:A88)</f>
+        <v>0.82775050000000006</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.109098</v>
+        <v>0.74660300000000002</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5.1211099999999999E-3</v>
+        <v>1.72631</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89" si="11">AVERAGE(A89:A90)</f>
+        <v>4.0506000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>19</v>
+      <c r="A90">
+        <v>6.3748899999999997</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>0.92527700000000002</v>
-      </c>
-      <c r="C91">
-        <f>AVERAGE(A91:A94)</f>
-        <v>0.9551957499999999</v>
+      <c r="A91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>1.0108999999999999</v>
+      <c r="A92" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.88434599999999997</v>
+        <v>1.27013</v>
+      </c>
+      <c r="C93">
+        <f>AVERAGE(A93:A95)</f>
+        <v>1.17239</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1.0002599999999999</v>
+        <v>1.0842700000000001</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.435278</v>
-      </c>
-      <c r="C95">
-        <f>AVERAGE(A95:A98)</f>
-        <v>0.2591716375</v>
+        <v>1.1627700000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1.89661E-2</v>
+        <v>1.77772</v>
+      </c>
+      <c r="C96">
+        <f>AVERAGE(A96:A98)</f>
+        <v>0.6306463699999999</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.57467400000000002</v>
+        <v>0.109098</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>7.7684499999999997E-3</v>
+        <v>5.1211099999999999E-3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>21</v>
+      <c r="A100">
+        <v>0.92527700000000002</v>
+      </c>
+      <c r="C100">
+        <f>AVERAGE(A100:A103)</f>
+        <v>0.9551957499999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1.02722</v>
-      </c>
-      <c r="C101">
-        <f>AVERAGE(A101:A102)</f>
-        <v>1.0290050000000002</v>
+        <v>1.0108999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1.0307900000000001</v>
+        <v>0.88434599999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.45032</v>
-      </c>
-      <c r="C103">
-        <f>AVERAGE(A103:A104)</f>
-        <v>0.94568000000000008</v>
+        <v>1.0002599999999999</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1.4410400000000001</v>
+        <v>0.435278</v>
+      </c>
+      <c r="C104">
+        <f>AVERAGE(A104:A107)</f>
+        <v>0.2591716375</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>22</v>
+      <c r="A105">
+        <v>1.89661E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>23</v>
+      <c r="A106">
+        <v>0.57467400000000002</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1.04982</v>
-      </c>
-      <c r="C107">
-        <f>AVERAGE(A107:A108)</f>
-        <v>1.0096499999999999</v>
+        <v>7.7684499999999997E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>0.96948000000000001</v>
+      <c r="A108" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>0.66244899999999995</v>
-      </c>
-      <c r="C109">
-        <f>AVERAGE(A109:A110)</f>
-        <v>1.7053895000000001</v>
+      <c r="A109" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2.7483300000000002</v>
+        <v>1.02722</v>
+      </c>
+      <c r="C110">
+        <f>AVERAGE(A110:A111)</f>
+        <v>1.0290050000000002</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>24</v>
+      <c r="A111">
+        <v>1.0307900000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>25</v>
+      <c r="A112">
+        <v>0.45032</v>
+      </c>
+      <c r="C112">
+        <f>AVERAGE(A112:A113)</f>
+        <v>0.94568000000000008</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.96836800000000001</v>
-      </c>
-      <c r="C113">
-        <f>AVERAGE(A113:A115)</f>
-        <v>1.0368593333333334</v>
+        <v>1.4410400000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>1.0874600000000001</v>
+      <c r="A114" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>1.0547500000000001</v>
+      <c r="A115" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>3.2722099999999997E-2</v>
+        <v>1.04982</v>
       </c>
       <c r="C116">
-        <f>AVERAGE(A116:A118)</f>
-        <v>1.3564506999999999</v>
+        <f>AVERAGE(A116:A117)</f>
+        <v>1.0096499999999999</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.78795000000000004</v>
+        <v>0.96948000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>3.2486799999999998</v>
+        <v>0.66244899999999995</v>
+      </c>
+      <c r="C118">
+        <f>AVERAGE(A118:A119)</f>
+        <v>1.7053895000000001</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>26</v>
+      <c r="A119">
+        <v>2.7483300000000002</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>1.0075700000000001</v>
-      </c>
-      <c r="C120">
-        <f>AVERAGE(A120:A123)</f>
-        <v>0.99880550000000001</v>
+      <c r="A120" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>1.03759</v>
+      <c r="A121" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.96267400000000003</v>
+        <v>0.96836800000000001</v>
+      </c>
+      <c r="C122">
+        <f>AVERAGE(A122:A124)</f>
+        <v>1.0368593333333334</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.98738800000000004</v>
+        <v>1.0874600000000001</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1.5262400000000001E-2</v>
-      </c>
-      <c r="C124">
-        <f>AVERAGE(A124:A127)</f>
-        <v>0.27640928749999993</v>
+        <v>1.0547500000000001</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1.8264300000000001E-2</v>
+        <v>3.2722099999999997E-2</v>
+      </c>
+      <c r="C125">
+        <f>AVERAGE(A125:A127)</f>
+        <v>1.3564506999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1.0672299999999999</v>
+        <v>0.78795000000000004</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>4.8804499999999997E-3</v>
+        <v>3.2486799999999998</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>28</v>
+      <c r="A129">
+        <v>1.0075700000000001</v>
+      </c>
+      <c r="C129">
+        <f>AVERAGE(A129:A132)</f>
+        <v>0.99880550000000001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1.0265599999999999</v>
-      </c>
-      <c r="C130">
-        <f>AVERAGE(A130:A134)</f>
-        <v>1.0181549999999999</v>
+        <v>1.03759</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1.15191</v>
+        <v>0.96267400000000003</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1.04427</v>
+        <v>0.98738800000000004</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.80870500000000001</v>
+        <v>1.5262400000000001E-2</v>
+      </c>
+      <c r="C133">
+        <f>AVERAGE(A133:A136)</f>
+        <v>0.27640928749999993</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1.0593300000000001</v>
+        <v>1.8264300000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>5.8857299999999996E-3</v>
-      </c>
-      <c r="C135">
-        <f>AVERAGE(A135:A139)</f>
-        <v>0.43911198000000001</v>
+        <v>1.0672299999999999</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>4.5632800000000003E-3</v>
+        <v>4.8804499999999997E-3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>8.8358900000000008E-3</v>
+      <c r="A137" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>1.70221</v>
+      <c r="A138" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.47406500000000001</v>
+        <v>1.0265599999999999</v>
+      </c>
+      <c r="C139">
+        <f>AVERAGE(A139:A143)</f>
+        <v>1.0181549999999999</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>29</v>
+      <c r="A140">
+        <v>1.15191</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>30</v>
+      <c r="A141">
+        <v>1.04427</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1.0727</v>
-      </c>
-      <c r="C142">
-        <f>AVERAGE(A142:A145)</f>
-        <v>1.0284385</v>
+        <v>0.80870500000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1.03501</v>
+        <v>1.0593300000000001</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.98879399999999995</v>
+        <v>5.8857299999999996E-3</v>
+      </c>
+      <c r="C144">
+        <f>AVERAGE(A144:A148)</f>
+        <v>0.43911198000000001</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1.01725</v>
+        <v>4.5632800000000003E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>8.8352900000000009E-3</v>
-      </c>
-      <c r="C146">
-        <f>AVERAGE(A146:A149)</f>
-        <v>8.0448162499999989E-2</v>
+        <v>8.8358900000000008E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>6.2690899999999997E-3</v>
+        <v>1.70221</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.30343599999999998</v>
+        <v>0.47406500000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>3.2522699999999998E-3</v>
+      <c r="A149" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1.02457</v>
+        <v>1.0727</v>
       </c>
       <c r="C151">
-        <f>AVERAGE(A151:A152)</f>
-        <v>1.0277099999999999</v>
+        <f>AVERAGE(A151:A154)</f>
+        <v>1.0284385</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1.03085</v>
+        <v>1.03501</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.15102299999999999</v>
-      </c>
-      <c r="C153">
-        <f>AVERAGE(A153:A154)</f>
-        <v>0.32124150000000001</v>
+        <v>0.98879399999999995</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.49146000000000001</v>
+        <v>1.01725</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>32</v>
+      <c r="A155">
+        <v>8.8352900000000009E-3</v>
+      </c>
+      <c r="C155">
+        <f>AVERAGE(A155:A158)</f>
+        <v>8.0448162499999989E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1.12151</v>
-      </c>
-      <c r="C156">
-        <f>AVERAGE(A156:A159)</f>
-        <v>1.0641924999999999</v>
+        <v>6.2690899999999997E-3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1.01894</v>
+        <v>0.30343599999999998</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1.05135</v>
+        <v>3.2522699999999998E-3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>1.06497</v>
+      <c r="A159" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.51582300000000003</v>
+        <v>1.02457</v>
       </c>
       <c r="C160">
-        <f>AVERAGE(A160:A163)</f>
-        <v>0.16374002499999998</v>
+        <f>AVERAGE(A160:A161)</f>
+        <v>1.0277099999999999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.11378199999999999</v>
+        <v>1.03085</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1.08805E-2</v>
+        <v>0.15102299999999999</v>
+      </c>
+      <c r="C162">
+        <f>AVERAGE(A162:A163)</f>
+        <v>0.32124150000000001</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1.4474600000000001E-2</v>
+        <v>0.49146000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1.0087600000000001</v>
+        <v>1.12151</v>
       </c>
       <c r="C165">
-        <f>AVERAGE(A165:A169)</f>
-        <v>1.1197199999999998</v>
+        <f>AVERAGE(A165:A168)</f>
+        <v>1.0641924999999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1.0552900000000001</v>
+        <v>1.01894</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1.0684499999999999</v>
+        <v>1.05135</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1.28363</v>
+        <v>1.06497</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1.1824699999999999</v>
+        <v>0.51582300000000003</v>
+      </c>
+      <c r="C169">
+        <f>AVERAGE(A169:A172)</f>
+        <v>0.16374002499999998</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1.3068299999999999</v>
-      </c>
-      <c r="C170">
-        <f>AVERAGE(A170:A174)</f>
-        <v>0.90480845999999993</v>
+        <v>0.11378199999999999</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>9.02863E-2</v>
+        <v>1.08805E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.49721799999999999</v>
+        <v>1.4474600000000001E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>1.7732000000000001</v>
+      <c r="A173" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.85650800000000005</v>
+        <v>1.0087600000000001</v>
+      </c>
+      <c r="C174">
+        <f>AVERAGE(A174:A178)</f>
+        <v>1.1197199999999998</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>34</v>
+      <c r="A175">
+        <v>1.0552900000000001</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1.08667</v>
-      </c>
-      <c r="C176">
-        <f>AVERAGE(A176:A177)</f>
-        <v>1.0863450000000001</v>
+        <v>1.0684499999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1.08602</v>
+        <v>1.28363</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.228079</v>
-      </c>
-      <c r="C178">
-        <f>AVERAGE(A178:A179)</f>
-        <v>0.1332991</v>
+        <v>1.1824699999999999</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>3.8519200000000003E-2</v>
+        <v>1.3068299999999999</v>
+      </c>
+      <c r="C179">
+        <f>AVERAGE(A179:A183)</f>
+        <v>0.90480845999999993</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>35</v>
+      <c r="A180">
+        <v>9.02863E-2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1.0735600000000001</v>
-      </c>
-      <c r="C181">
-        <f>AVERAGE(A181:A190)</f>
-        <v>1.0266626000000001</v>
+        <v>0.49721799999999999</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1.04304</v>
+        <v>1.7732000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.97774000000000005</v>
+        <v>0.85650800000000005</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>0.929396</v>
+      <c r="A184" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1.0035000000000001</v>
+        <v>1.08667</v>
+      </c>
+      <c r="C185">
+        <f>AVERAGE(A185:A186)</f>
+        <v>1.0863450000000001</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1.0015400000000001</v>
+        <v>1.08602</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1.1022099999999999</v>
+        <v>0.228079</v>
+      </c>
+      <c r="C187">
+        <f>AVERAGE(A187:A188)</f>
+        <v>0.1332991</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1.0363599999999999</v>
+        <v>3.8519200000000003E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>1.0395000000000001</v>
+      <c r="A189" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1.0597799999999999</v>
+        <v>1.0735600000000001</v>
+      </c>
+      <c r="C190">
+        <f>AVERAGE(A190:A199)</f>
+        <v>1.0266626000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>3.7278099999999998E-3</v>
-      </c>
-      <c r="C191">
-        <f>AVERAGE(A191:A200)</f>
-        <v>4.0321956999999999E-2</v>
+        <v>1.04304</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>7.8702700000000004E-3</v>
+        <v>0.97774000000000005</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1.21677E-2</v>
+        <v>0.929396</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>3.5138000000000001E-3</v>
+        <v>1.0035000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>8.3105999999999999E-2</v>
+        <v>1.0015400000000001</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>3.5192700000000001E-3</v>
+        <v>1.1022099999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.18498999999999999</v>
+        <v>1.0363599999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>7.8371899999999994E-2</v>
+        <v>1.0395000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1.94048E-2</v>
+        <v>1.0597799999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>6.5480199999999999E-3</v>
+        <v>3.7278099999999998E-3</v>
+      </c>
+      <c r="C200">
+        <f>AVERAGE(A200:A209)</f>
+        <v>4.0321956999999999E-2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>36</v>
+      <c r="A201">
+        <v>7.8702700000000004E-3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.99961999999999995</v>
-      </c>
-      <c r="C202">
-        <f>AVERAGE(A202:A203)</f>
-        <v>1.00979</v>
+        <v>1.21677E-2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1.01996</v>
+        <v>3.5138000000000001E-3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3.4978299999999999E-3</v>
-      </c>
-      <c r="C204">
-        <f>AVERAGE(A204:A205)</f>
-        <v>0.79316891499999997</v>
+        <v>8.3105999999999999E-2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1.58284</v>
+        <v>3.5192700000000001E-3</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>37</v>
+      <c r="A206">
+        <v>0.18498999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>1.0219100000000001</v>
-      </c>
-      <c r="C207">
-        <f>AVERAGE(A207:A208)</f>
-        <v>1.033085</v>
+        <v>7.8371899999999994E-2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>1.04426</v>
+        <v>1.94048E-2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>4.0509999999999997E-2</v>
-      </c>
-      <c r="C209">
-        <f>AVERAGE(A209:A210)</f>
-        <v>2.2551079999999998E-2</v>
+        <v>6.5480199999999999E-3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>4.5921599999999996E-3</v>
+      <c r="A210" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>38</v>
+      <c r="A211">
+        <v>0.99961999999999995</v>
+      </c>
+      <c r="C211">
+        <f>AVERAGE(A211:A212)</f>
+        <v>1.00979</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>1.0293099999999999</v>
-      </c>
-      <c r="C212">
-        <f>AVERAGE(A212:A215)</f>
-        <v>1.0450249999999999</v>
+        <v>1.01996</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>1.0464599999999999</v>
+        <v>3.4978299999999999E-3</v>
+      </c>
+      <c r="C213">
+        <f>AVERAGE(A213:A214)</f>
+        <v>0.79316891499999997</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>1.0733600000000001</v>
+        <v>1.58284</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>1.0309699999999999</v>
+      <c r="A215" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>1.6279700000000001E-2</v>
+        <v>1.0219100000000001</v>
       </c>
       <c r="C216">
-        <f>AVERAGE(A216:A219)</f>
-        <v>3.0985724999999999E-2</v>
+        <f>AVERAGE(A216:A217)</f>
+        <v>1.033085</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2.7552400000000001E-2</v>
+        <v>1.04426</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2.76146E-2</v>
+        <v>4.0509999999999997E-2</v>
+      </c>
+      <c r="C218">
+        <f>AVERAGE(A218:A219)</f>
+        <v>2.2551079999999998E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>5.24962E-2</v>
+        <v>4.5921599999999996E-3</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.76131300000000002</v>
+        <v>1.0293099999999999</v>
       </c>
       <c r="C221">
-        <f>AVERAGE(A221:A225)</f>
-        <v>0.95470179999999993</v>
+        <f>AVERAGE(A221:A224)</f>
+        <v>1.0450249999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>1.0027200000000001</v>
+        <v>1.0464599999999999</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>1.04877</v>
+        <v>1.0733600000000001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>1.0122199999999999</v>
+        <v>1.0309699999999999</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>0.94848600000000005</v>
+        <v>1.6279700000000001E-2</v>
+      </c>
+      <c r="C225">
+        <f>AVERAGE(A225:A228)</f>
+        <v>3.0985724999999999E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.43485499999999999</v>
-      </c>
-      <c r="C226">
-        <f>AVERAGE(A226:A230)</f>
-        <v>0.16981284000000002</v>
+        <v>2.7552400000000001E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.32095099999999999</v>
+        <v>2.76146E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>1.17842E-2</v>
+        <v>5.24962E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>3.8046000000000003E-2</v>
+      <c r="A229" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>4.3428000000000001E-2</v>
+        <v>0.76131300000000002</v>
+      </c>
+      <c r="C230">
+        <f>AVERAGE(A230:A234)</f>
+        <v>0.95470179999999993</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>40</v>
+      <c r="A231">
+        <v>1.0027200000000001</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>1.04169</v>
-      </c>
-      <c r="C232">
-        <f>AVERAGE(A232:A235)</f>
-        <v>1.0524024999999999</v>
+        <v>1.04877</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>1.0601100000000001</v>
+        <v>1.0122199999999999</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>1.06294</v>
+        <v>0.94848600000000005</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>1.04487</v>
+        <v>0.43485499999999999</v>
+      </c>
+      <c r="C235">
+        <f>AVERAGE(A235:A239)</f>
+        <v>0.16981284000000002</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>1.32257E-2</v>
-      </c>
-      <c r="C236">
-        <f>AVERAGE(A236:A239)</f>
-        <v>0.20468700000000001</v>
+        <v>0.32095099999999999</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>5.6556299999999997E-2</v>
+        <v>1.17842E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>0.54137000000000002</v>
+        <v>3.8046000000000003E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.207596</v>
+        <v>4.3428000000000001E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1.2340800000000001</v>
+        <v>1.04169</v>
       </c>
       <c r="C241">
-        <f>AVERAGE(A241:A242)</f>
-        <v>1.1757550000000001</v>
+        <f>AVERAGE(A241:A244)</f>
+        <v>1.0524024999999999</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>1.1174299999999999</v>
+        <v>1.0601100000000001</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.87282599999999999</v>
-      </c>
-      <c r="C243">
-        <f>AVERAGE(A243:A244)</f>
-        <v>0.44110212999999998</v>
+        <v>1.06294</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>9.3782599999999994E-3</v>
+        <v>1.04487</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>42</v>
+      <c r="A245">
+        <v>1.32257E-2</v>
+      </c>
+      <c r="C245">
+        <f>AVERAGE(A245:A248)</f>
+        <v>0.20468700000000001</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>1.0101599999999999</v>
-      </c>
-      <c r="C246">
-        <f>AVERAGE(A246:A247)</f>
-        <v>1.020295</v>
+        <v>5.6556299999999997E-2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>1.03043</v>
+        <v>0.54137000000000002</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.68796299999999999</v>
-      </c>
-      <c r="C248">
-        <f>AVERAGE(A248:A249)</f>
-        <v>0.35622254999999997</v>
+        <v>0.207596</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>2.44821E-2</v>
+      <c r="A249" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>43</v>
+      <c r="A250">
+        <v>1.2340800000000001</v>
+      </c>
+      <c r="C250">
+        <f>AVERAGE(A250:A251)</f>
+        <v>1.1757550000000001</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1.0218700000000001</v>
-      </c>
-      <c r="C251">
-        <f>AVERAGE(A251:A252)</f>
-        <v>0.88304850000000001</v>
+        <v>1.1174299999999999</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.74422699999999997</v>
+        <v>0.87282599999999999</v>
+      </c>
+      <c r="C252">
+        <f>AVERAGE(A252:A253)</f>
+        <v>0.44110212999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.42830299999999999</v>
-      </c>
-      <c r="C253">
-        <f>AVERAGE(A253:A254)</f>
-        <v>5.0532664999999994</v>
+        <v>9.3782599999999994E-3</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>9.6782299999999992</v>
+      <c r="A254" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>44</v>
+      <c r="A255">
+        <v>1.0101599999999999</v>
+      </c>
+      <c r="C255">
+        <f>AVERAGE(A255:A256)</f>
+        <v>1.020295</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>45</v>
+      <c r="A256">
+        <v>1.03043</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>1.06229</v>
+        <v>0.68796299999999999</v>
       </c>
       <c r="C257">
         <f>AVERAGE(A257:A258)</f>
-        <v>1.0646900000000001</v>
+        <v>0.35622254999999997</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>1.0670900000000001</v>
+        <v>2.44821E-2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>0.83065800000000001</v>
-      </c>
-      <c r="C259">
-        <f>AVERAGE(A259:A260)</f>
-        <v>0.41760827</v>
+      <c r="A259" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>4.5585399999999998E-3</v>
+        <v>1.0218700000000001</v>
+      </c>
+      <c r="C260">
+        <f>AVERAGE(A260:A261)</f>
+        <v>0.88304850000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>46</v>
+      <c r="A261">
+        <v>0.74422699999999997</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>47</v>
+      <c r="A262">
+        <v>0.42830299999999999</v>
+      </c>
+      <c r="C262">
+        <f>AVERAGE(A262:A263)</f>
+        <v>5.0532664999999994</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>1.0039400000000001</v>
-      </c>
-      <c r="C263">
-        <f>AVERAGE(A263:A264)</f>
-        <v>1.0114000000000001</v>
+        <v>9.6782299999999992</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>1.0188600000000001</v>
+      <c r="A264" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>7.9719500000000002E-3</v>
-      </c>
-      <c r="C265">
-        <f>AVERAGE(A265:A266)</f>
-        <v>0.16736047500000001</v>
+      <c r="A265" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.32674900000000001</v>
+        <v>1.06229</v>
+      </c>
+      <c r="C266">
+        <f>AVERAGE(A266:A267)</f>
+        <v>1.0646900000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>48</v>
+      <c r="A267">
+        <v>1.0670900000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>49</v>
+      <c r="A268">
+        <v>0.83065800000000001</v>
+      </c>
+      <c r="C268">
+        <f>AVERAGE(A268:A269)</f>
+        <v>0.41760827</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1.0119</v>
-      </c>
-      <c r="C269">
-        <f>AVERAGE(A269:A270)</f>
-        <v>1.01288</v>
+        <v>4.5585399999999998E-3</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>1.01386</v>
+      <c r="A270" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>3.4430300000000001E-3</v>
-      </c>
-      <c r="C271">
-        <f>AVERAGE(A271:A272)</f>
-        <v>0.20308901500000001</v>
+      <c r="A271" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.40273500000000001</v>
+        <v>1.0039400000000001</v>
+      </c>
+      <c r="C272">
+        <f>AVERAGE(A272:A273)</f>
+        <v>1.0114000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>50</v>
+      <c r="A273">
+        <v>1.0188600000000001</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>1.0088999999999999</v>
+        <v>7.9719500000000002E-3</v>
       </c>
       <c r="C274">
         <f>AVERAGE(A274:A275)</f>
-        <v>1.0223399999999998</v>
+        <v>0.16736047500000001</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>1.0357799999999999</v>
+        <v>0.32674900000000001</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>0.13374800000000001</v>
-      </c>
-      <c r="C276">
-        <f>AVERAGE(A276:A277)</f>
-        <v>6.9374680000000008E-2</v>
+      <c r="A276" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>5.0013599999999998E-3</v>
+      <c r="A277" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>51</v>
+      <c r="A278">
+        <v>1.0119</v>
+      </c>
+      <c r="C278">
+        <f>AVERAGE(A278:A279)</f>
+        <v>1.01288</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>1.07003</v>
-      </c>
-      <c r="C279">
-        <f>AVERAGE(A279:A282)</f>
-        <v>1.0307010000000001</v>
+        <v>1.01386</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.99170400000000003</v>
+        <v>3.4430300000000001E-3</v>
+      </c>
+      <c r="C280">
+        <f>AVERAGE(A280:A281)</f>
+        <v>0.20308901500000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>1.04081</v>
+        <v>0.40273500000000001</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>1.0202599999999999</v>
+      <c r="A282" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>2.94659E-2</v>
+        <v>1.0088999999999999</v>
       </c>
       <c r="C283">
-        <f>AVERAGE(A283:A286)</f>
-        <v>0.26536919999999997</v>
+        <f>AVERAGE(A283:A284)</f>
+        <v>1.0223399999999998</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.89500999999999997</v>
+        <v>1.0357799999999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>9.1652999999999998E-2</v>
+        <v>0.13374800000000001</v>
+      </c>
+      <c r="C285">
+        <f>AVERAGE(A285:A286)</f>
+        <v>6.9374680000000008E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>4.5347899999999997E-2</v>
+        <v>5.0013599999999998E-3</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>53</v>
+      <c r="A288">
+        <v>1.07003</v>
+      </c>
+      <c r="C288">
+        <f>AVERAGE(A288:A291)</f>
+        <v>1.0307010000000001</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>54</v>
+      <c r="A289">
+        <v>0.99170400000000003</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.87159500000000001</v>
-      </c>
-      <c r="C290">
-        <f>AVERAGE(A290:A294)</f>
-        <v>0.97467860000000006</v>
+        <v>1.04081</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1.13114</v>
+        <v>1.0202599999999999</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1.1505099999999999</v>
+        <v>2.94659E-2</v>
+      </c>
+      <c r="C292">
+        <f>AVERAGE(A292:A295)</f>
+        <v>0.26536919999999997</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.63599799999999995</v>
+        <v>0.89500999999999997</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1.0841499999999999</v>
+        <v>9.1652999999999998E-2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.26765499999999998</v>
-      </c>
-      <c r="C295">
-        <f>AVERAGE(A295:A299)</f>
-        <v>0.54658991800000001</v>
+        <v>4.5347899999999997E-2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>7.2284799999999998E-3</v>
+      <c r="A296" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>3.4703099999999999E-3</v>
+      <c r="A297" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>2.4184899999999998</v>
+      <c r="A298" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>3.61058E-2</v>
+        <v>0.87159500000000001</v>
+      </c>
+      <c r="C299">
+        <f>AVERAGE(A299:A303)</f>
+        <v>0.97467860000000006</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>55</v>
+      <c r="A300">
+        <v>1.13114</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>0.99341500000000005</v>
-      </c>
-      <c r="C301">
-        <f>AVERAGE(A301:A305)</f>
-        <v>0.9973436</v>
+        <v>1.1505099999999999</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.92977299999999996</v>
+        <v>0.63599799999999995</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1.03268</v>
+        <v>1.0841499999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1.0064599999999999</v>
+        <v>0.26765499999999998</v>
+      </c>
+      <c r="C304">
+        <f>AVERAGE(A304:A308)</f>
+        <v>0.54658991800000001</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>1.0243899999999999</v>
+        <v>7.2284799999999998E-3</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>3.3327000000000001E-3</v>
-      </c>
-      <c r="C306">
-        <f>AVERAGE(A306:A310)</f>
-        <v>5.0536821999999995E-2</v>
+        <v>3.4703099999999999E-3</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>6.0176599999999997E-2</v>
+        <v>2.4184899999999998</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>9.2093100000000001E-3</v>
+        <v>3.61058E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>0.14078399999999999</v>
+      <c r="A309" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>3.9181500000000001E-2</v>
+        <v>0.99341500000000005</v>
+      </c>
+      <c r="C310">
+        <f>AVERAGE(A310:A314)</f>
+        <v>0.9973436</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>56</v>
+      <c r="A311">
+        <v>0.92977299999999996</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1.0353399999999999</v>
-      </c>
-      <c r="C312">
-        <f>AVERAGE(A312:A315)</f>
-        <v>1.0089834999999998</v>
+        <v>1.03268</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>1.0422100000000001</v>
+        <v>1.0064599999999999</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.92897399999999997</v>
+        <v>1.0243899999999999</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>1.0294099999999999</v>
+        <v>3.3327000000000001E-3</v>
+      </c>
+      <c r="C315">
+        <f>AVERAGE(A315:A319)</f>
+        <v>5.0536821999999995E-2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>5.10488E-3</v>
-      </c>
-      <c r="C316">
-        <f>AVERAGE(A316:A319)</f>
-        <v>0.20761496250000003</v>
+        <v>6.0176599999999997E-2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>5.8240699999999998E-3</v>
+        <v>9.2093100000000001E-3</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.78484500000000001</v>
+        <v>0.14078399999999999</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>3.4685899999999999E-2</v>
+        <v>3.9181500000000001E-2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.92146399999999995</v>
+        <v>1.0353399999999999</v>
       </c>
       <c r="C321">
-        <f>AVERAGE(A321:A322)</f>
-        <v>0.97090699999999996</v>
+        <f>AVERAGE(A321:A324)</f>
+        <v>1.0089834999999998</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>1.0203500000000001</v>
+        <v>1.0422100000000001</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>2.65916</v>
-      </c>
-      <c r="C323">
-        <f>AVERAGE(A323:A324)</f>
-        <v>1.34441335</v>
+        <v>0.92897399999999997</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>2.9666700000000001E-2</v>
+        <v>1.0294099999999999</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>58</v>
+      <c r="A325">
+        <v>5.10488E-3</v>
+      </c>
+      <c r="C325">
+        <f>AVERAGE(A325:A328)</f>
+        <v>0.20761496250000003</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>1.00004</v>
-      </c>
-      <c r="C326">
-        <f>AVERAGE(A326:A329)</f>
-        <v>1.0110249999999998</v>
+        <v>5.8240699999999998E-3</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>1.0035099999999999</v>
+        <v>0.78484500000000001</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>1.03365</v>
+        <v>3.4685899999999999E-2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>1.0068999999999999</v>
+      <c r="A329" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>8.8635899999999993E-3</v>
+        <v>0.92146399999999995</v>
       </c>
       <c r="C330">
-        <f>AVERAGE(A330:A333)</f>
-        <v>0.22681389749999997</v>
+        <f>AVERAGE(A330:A331)</f>
+        <v>0.97090699999999996</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.139541</v>
+        <v>1.0203500000000001</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.42597200000000002</v>
+        <v>2.65916</v>
+      </c>
+      <c r="C332">
+        <f>AVERAGE(A332:A333)</f>
+        <v>1.34441335</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.33287899999999998</v>
+        <v>2.9666700000000001E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>1.5538799999999999</v>
+        <v>1.00004</v>
       </c>
       <c r="C335">
         <f>AVERAGE(A335:A338)</f>
-        <v>1.12808825</v>
+        <v>1.0110249999999998</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>1.0058499999999999</v>
+        <v>1.0035099999999999</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.89019300000000001</v>
+        <v>1.03365</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>1.06243</v>
+        <v>1.0068999999999999</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.13775399999999999</v>
+        <v>8.8635899999999993E-3</v>
       </c>
       <c r="C339">
         <f>AVERAGE(A339:A342)</f>
-        <v>5.0479095000000002E-2</v>
+        <v>0.22681389749999997</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>7.0748800000000004E-3</v>
+        <v>0.139541</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>5.3723399999999998E-2</v>
+        <v>0.42597200000000002</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>3.3641000000000001E-3</v>
+        <v>0.33287899999999998</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>61</v>
+      <c r="A344">
+        <v>1.5538799999999999</v>
+      </c>
+      <c r="C344">
+        <f>AVERAGE(A344:A347)</f>
+        <v>1.12808825</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>62</v>
+      <c r="A345">
+        <v>1.0058499999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.72309900000000005</v>
-      </c>
-      <c r="C346">
-        <f>AVERAGE(A346:A350)</f>
-        <v>0.9384112</v>
+        <v>0.89019300000000001</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>1.0349999999999999</v>
+        <v>1.06243</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>1.1474200000000001</v>
+        <v>0.13775399999999999</v>
+      </c>
+      <c r="C348">
+        <f>AVERAGE(A348:A351)</f>
+        <v>5.0479095000000002E-2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>1.0569900000000001</v>
+        <v>7.0748800000000004E-3</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.72954699999999995</v>
+        <v>5.3723399999999998E-2</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>1.2802</v>
-      </c>
-      <c r="C351">
-        <f>AVERAGE(A351:A355)</f>
-        <v>0.32122935999999996</v>
+        <v>3.3641000000000001E-3</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>0.24618599999999999</v>
+      <c r="A352" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>1.12964E-2</v>
+      <c r="A353" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>5.3717300000000003E-2</v>
+      <c r="A354" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>1.4747100000000001E-2</v>
+        <v>0.72309900000000005</v>
+      </c>
+      <c r="C355">
+        <f>AVERAGE(A355:A359)</f>
+        <v>0.9384112</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>63</v>
+      <c r="A356">
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>1.0854999999999999</v>
-      </c>
-      <c r="C357">
-        <f>AVERAGE(A357:A358)</f>
-        <v>1.050495</v>
+        <v>1.1474200000000001</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>1.01549</v>
+        <v>1.0569900000000001</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>5.3540200000000001E-3</v>
-      </c>
-      <c r="C359">
-        <f>AVERAGE(A359:A360)</f>
-        <v>4.1609560000000004E-2</v>
+        <v>0.72954699999999995</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>7.7865100000000007E-2</v>
+        <v>1.2802</v>
+      </c>
+      <c r="C360">
+        <f>AVERAGE(A360:A364)</f>
+        <v>0.32122935999999996</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>64</v>
+      <c r="A361">
+        <v>0.24618599999999999</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.86845600000000001</v>
-      </c>
-      <c r="C362">
-        <f>AVERAGE(A362:A365)</f>
-        <v>0.96533475000000002</v>
+        <v>1.12964E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>1.0145500000000001</v>
+        <v>5.3717300000000003E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.99845099999999998</v>
+        <v>1.4747100000000001E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>0.97988200000000003</v>
+      <c r="A365" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>1.3031299999999999E-2</v>
+        <v>1.0854999999999999</v>
       </c>
       <c r="C366">
-        <f>AVERAGE(A366:A369)</f>
-        <v>4.0978324999999996E-2</v>
+        <f>AVERAGE(A366:A367)</f>
+        <v>1.050495</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>1.01975E-2</v>
+        <v>1.01549</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.12460499999999999</v>
+        <v>5.3540200000000001E-3</v>
+      </c>
+      <c r="C368">
+        <f>AVERAGE(A368:A369)</f>
+        <v>4.1609560000000004E-2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>1.60795E-2</v>
+        <v>7.7865100000000007E-2</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>1.03698</v>
+        <v>0.86845600000000001</v>
       </c>
       <c r="C371">
         <f>AVERAGE(A371:A374)</f>
-        <v>1.0160812499999998</v>
+        <v>0.96533475000000002</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>1.0573399999999999</v>
+        <v>1.0145500000000001</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>1.0058199999999999</v>
+        <v>0.99845099999999998</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.96418499999999996</v>
+        <v>0.97988200000000003</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>3.5520900000000001E-2</v>
+        <v>1.3031299999999999E-2</v>
       </c>
       <c r="C375">
         <f>AVERAGE(A375:A378)</f>
-        <v>1.510185E-2</v>
+        <v>4.0978324999999996E-2</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>3.3927800000000002E-3</v>
+        <v>1.01975E-2</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>1.4139199999999999E-2</v>
+        <v>0.12460499999999999</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>7.3545199999999998E-3</v>
+        <v>1.60795E-2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.92948500000000001</v>
+        <v>1.03698</v>
       </c>
       <c r="C380">
-        <f>AVERAGE(A380:A381)</f>
-        <v>0.99932749999999992</v>
+        <f>AVERAGE(A380:A383)</f>
+        <v>1.0160812499999998</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>1.06917</v>
+        <v>1.0573399999999999</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>2.7263600000000001</v>
-      </c>
-      <c r="C382">
-        <f>AVERAGE(A382:A383)</f>
-        <v>1.37253625</v>
+        <v>1.0058199999999999</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>1.87125E-2</v>
+        <v>0.96418499999999996</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>67</v>
+      <c r="A384">
+        <v>3.5520900000000001E-2</v>
+      </c>
+      <c r="C384">
+        <f>AVERAGE(A384:A387)</f>
+        <v>1.510185E-2</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>1.4543600000000001</v>
-      </c>
-      <c r="C385">
-        <f>AVERAGE(A385:A388)</f>
-        <v>1.14366575</v>
+        <v>3.3927800000000002E-3</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.98863299999999998</v>
+        <v>1.4139199999999999E-2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>1.1162300000000001</v>
+        <v>7.3545199999999998E-3</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>1.0154399999999999</v>
+      <c r="A388" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>2.29115E-3</v>
+        <v>0.92948500000000001</v>
       </c>
       <c r="C389">
-        <f>AVERAGE(A389:A392)</f>
-        <v>5.122463E-2</v>
+        <f>AVERAGE(A389:A390)</f>
+        <v>0.99932749999999992</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.19026000000000001</v>
+        <v>1.06917</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>5.37113E-3</v>
+        <v>2.7263600000000001</v>
+      </c>
+      <c r="C391">
+        <f>AVERAGE(A391:A392)</f>
+        <v>1.37253625</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>6.9762399999999999E-3</v>
+        <v>1.87125E-2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>1.13794</v>
+        <v>1.4543600000000001</v>
       </c>
       <c r="C394">
-        <f>AVERAGE(A394:A395)</f>
-        <v>1.0971549999999999</v>
+        <f>AVERAGE(A394:A397)</f>
+        <v>1.14366575</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>1.05637</v>
+        <v>0.98863299999999998</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>3.0452900000000001E-2</v>
-      </c>
-      <c r="C396">
-        <f>AVERAGE(A396:A397)</f>
-        <v>0.34159095</v>
+        <v>1.1162300000000001</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.652729</v>
+        <v>1.0154399999999999</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>69</v>
+      <c r="A398">
+        <v>2.29115E-3</v>
+      </c>
+      <c r="C398">
+        <f>AVERAGE(A398:A401)</f>
+        <v>5.122463E-2</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>70</v>
+      <c r="A399">
+        <v>0.19026000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.94986599999999999</v>
-      </c>
-      <c r="C400">
-        <f>AVERAGE(A400:A403)</f>
-        <v>1.0288840000000001</v>
+        <v>5.37113E-3</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>1.01315</v>
+        <v>6.9762399999999999E-3</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>1.1374200000000001</v>
+      <c r="A402" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>1.0150999999999999</v>
+        <v>1.13794</v>
+      </c>
+      <c r="C403">
+        <f>AVERAGE(A403:A404)</f>
+        <v>1.0971549999999999</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>1.0947899999999999</v>
-      </c>
-      <c r="C404">
-        <f>AVERAGE(A404:A407)</f>
-        <v>0.48065609999999998</v>
+        <v>1.05637</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>1.07194E-2</v>
+        <v>3.0452900000000001E-2</v>
+      </c>
+      <c r="C405">
+        <f>AVERAGE(A405:A406)</f>
+        <v>0.34159095</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>0.48124</v>
+        <v>0.652729</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>0.33587499999999998</v>
+      <c r="A407" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>1.0393600000000001</v>
+        <v>0.94986599999999999</v>
       </c>
       <c r="C409">
-        <f>AVERAGE(A409:A411)</f>
-        <v>1.0604233333333333</v>
+        <f>AVERAGE(A409:A412)</f>
+        <v>1.0288840000000001</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>1.11818</v>
+        <v>1.01315</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>1.02373</v>
+        <v>1.1374200000000001</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>3.0626E-2</v>
-      </c>
-      <c r="C412">
-        <f>AVERAGE(A412:A414)</f>
-        <v>0.177957</v>
+        <v>1.0150999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>1.3231E-2</v>
+        <v>1.0947899999999999</v>
+      </c>
+      <c r="C413">
+        <f>AVERAGE(A413:A416)</f>
+        <v>0.48065609999999998</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>0.49001400000000001</v>
+        <v>1.07194E-2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>72</v>
+      <c r="A415">
+        <v>0.48124</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>1.0753999999999999</v>
-      </c>
-      <c r="C416">
-        <f>AVERAGE(A416:A417)</f>
-        <v>1.0804</v>
+        <v>0.33587499999999998</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>1.0853999999999999</v>
+      <c r="A417" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>0.445046</v>
+        <v>1.0393600000000001</v>
       </c>
       <c r="C418">
-        <f>AVERAGE(A418:A419)</f>
-        <v>0.23875045</v>
+        <f>AVERAGE(A418:A420)</f>
+        <v>1.0604233333333333</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>3.2454900000000002E-2</v>
+        <v>1.11818</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>73</v>
+      <c r="A420">
+        <v>1.02373</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>0.95649700000000004</v>
+        <v>3.0626E-2</v>
       </c>
       <c r="C421">
-        <f>AVERAGE(A421:A422)</f>
-        <v>0.97962349999999998</v>
+        <f>AVERAGE(A421:A423)</f>
+        <v>0.177957</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>1.00275</v>
+        <v>1.3231E-2</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>0.80260900000000002</v>
-      </c>
-      <c r="C423">
-        <f>AVERAGE(A423:A424)</f>
-        <v>0.40495598999999999</v>
+        <v>0.49001400000000001</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>7.3029799999999997E-3</v>
+      <c r="A424" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>74</v>
+      <c r="A425">
+        <v>1.0753999999999999</v>
+      </c>
+      <c r="C425">
+        <f>AVERAGE(A425:A426)</f>
+        <v>1.0804</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>1.0668899999999999</v>
-      </c>
-      <c r="C426">
-        <f>AVERAGE(A426:A427)</f>
-        <v>1.0375749999999999</v>
+        <v>1.0853999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>1.0082599999999999</v>
+        <v>0.445046</v>
+      </c>
+      <c r="C427">
+        <f>AVERAGE(A427:A428)</f>
+        <v>0.23875045</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>3.73194E-3</v>
-      </c>
-      <c r="C428">
-        <f>AVERAGE(A428:A429)</f>
-        <v>9.7680469999999991E-2</v>
+        <v>3.2454900000000002E-2</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>0.19162899999999999</v>
+      <c r="A429" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
-        <v>75</v>
+      <c r="A430">
+        <v>0.95649700000000004</v>
+      </c>
+      <c r="C430">
+        <f>AVERAGE(A430:A431)</f>
+        <v>0.97962349999999998</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>76</v>
+      <c r="A431">
+        <v>1.00275</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>1.0400799999999999</v>
+        <v>0.80260900000000002</v>
       </c>
       <c r="C432">
         <f>AVERAGE(A432:A433)</f>
-        <v>1.0167225</v>
+        <v>0.40495598999999999</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>0.99336500000000005</v>
+        <v>7.3029799999999997E-3</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>5.3105100000000002E-2</v>
-      </c>
-      <c r="C434">
-        <f>AVERAGE(A434:A435)</f>
-        <v>8.896155E-2</v>
+      <c r="A434" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>0.124818</v>
+        <v>1.0668899999999999</v>
+      </c>
+      <c r="C435">
+        <f>AVERAGE(A435:A436)</f>
+        <v>1.0375749999999999</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>77</v>
+      <c r="A436">
+        <v>1.0082599999999999</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>1.04321</v>
+        <v>3.73194E-3</v>
       </c>
       <c r="C437">
-        <f>AVERAGE(A437:A441)</f>
-        <v>1.11751</v>
+        <f>AVERAGE(A437:A438)</f>
+        <v>9.7680469999999991E-2</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>1.22679</v>
+        <v>0.19162899999999999</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>1.2272799999999999</v>
+      <c r="A439" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>1.0505100000000001</v>
+      <c r="A440" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>1.03976</v>
+        <v>1.0400799999999999</v>
+      </c>
+      <c r="C441">
+        <f>AVERAGE(A441:A442)</f>
+        <v>1.0167225</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>0.31584800000000002</v>
-      </c>
-      <c r="C442">
-        <f>AVERAGE(A442:A446)</f>
-        <v>0.18016576000000001</v>
+        <v>0.99336500000000005</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>0.22289400000000001</v>
+        <v>5.3105100000000002E-2</v>
+      </c>
+      <c r="C443">
+        <f>AVERAGE(A443:A444)</f>
+        <v>8.896155E-2</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>7.9172099999999995E-2</v>
+        <v>0.124818</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>0.24132400000000001</v>
+      <c r="A445" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>4.1590700000000001E-2</v>
+        <v>1.04321</v>
+      </c>
+      <c r="C446">
+        <f>AVERAGE(A446:A450)</f>
+        <v>1.11751</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>78</v>
+      <c r="A447">
+        <v>1.22679</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>1.02023</v>
-      </c>
-      <c r="C448">
-        <f>AVERAGE(A448:A450)</f>
-        <v>0.98974399999999996</v>
+        <v>1.2272799999999999</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>1.0182100000000001</v>
+        <v>1.0505100000000001</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>0.93079199999999995</v>
+        <v>1.03976</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>1.8608400000000001E-2</v>
+        <v>0.31584800000000002</v>
       </c>
       <c r="C451">
-        <f>AVERAGE(A451:A453)</f>
-        <v>9.6772200000000003E-3</v>
+        <f>AVERAGE(A451:A455)</f>
+        <v>0.18016576000000001</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>4.2693100000000001E-3</v>
+        <v>0.22289400000000001</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
+        <v>7.9172099999999995E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>0.24132400000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>4.1590700000000001E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>1.02023</v>
+      </c>
+      <c r="C457">
+        <f>AVERAGE(A457:A459)</f>
+        <v>0.98974399999999996</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>1.0182100000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>0.93079199999999995</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>1.8608400000000001E-2</v>
+      </c>
+      <c r="C460">
+        <f>AVERAGE(A460:A462)</f>
+        <v>9.6772200000000003E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>4.2693100000000001E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462">
         <v>6.15395E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C432:C436 C409:C425 C385:C393 C357:C383 C335:C351 C312:C332 C290:C294 C263:C264 C241:C260 C216:C236 C202:C211 C181:C191 C166:C178 C152 C131:C145 C2:C6 C47 C32:C35 C107:C112 C91:C100 C8:C11 C18:C23 C28 C37 C39:C40 C52 C13 C15:C16 C25:C26 C42 C44:C45 C49:C50 C54:C56 C58 C60:C65 C67:C86 C102:C103 C114:C124 C154:C160 C213 C266:C282 C296:C306 C395:C403 C427:C429 C438:C441 C443:C451" formulaRange="1"/>
+    <ignoredError sqref="C441:C445 C418:C434 C394:C402 C366:C392 C344:C360 C321:C341 C299:C303 C272:C273 C250:C269 C225:C245 C211:C220 C190:C200 C175:C187 C161 C140:C154 C11:C15 C56 C41:C44 C116:C121 C100:C109 C17:C20 C27:C32 C37 C46 C48:C49 C61 C22 C24:C25 C34:C35 C51 C53:C54 C58:C59 C63:C65 C67 C69:C74 C76:C95 C111:C112 C123:C133 C163:C169 C222 C275:C291 C305:C315 C404:C412 C436:C438 C447:C450 C452:C460" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>